--- a/PS5.xlsx
+++ b/PS5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo\Documents\INSPER2\Cdados\Nova pasta\P1-Cdados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\OneDrive\Documentos\2021.1\Ciência de Dados\Projeto 1 Ciencia de Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887F3EE0-1DBB-4BFC-AC3D-5EC6FBAF9026}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25149BD4-1201-4973-A31D-9684BDE5AB16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10848" yWindow="3624" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -3055,7 +3055,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3087,6 +3087,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -3132,7 +3139,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3166,9 +3173,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3201,7 +3211,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3523,17 +3533,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H592"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="E558" sqref="E558"/>
+    <sheetView topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="A161" sqref="A161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3544,7 +3554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -3552,7 +3562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3560,7 +3570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3568,7 +3578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3576,7 +3586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3584,7 +3594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3592,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3600,7 +3610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3608,7 +3618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3616,7 +3626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3624,7 +3634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3632,7 +3642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3640,7 +3650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -3648,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -3656,7 +3666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -3664,7 +3674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -3672,7 +3682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -3680,7 +3690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -3688,7 +3698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="e">
         <f>sanjilips akjsajk [1]!meu amigo disse q é quase o preço de um PS5 e eu real n sei oq valeria mais</f>
         <v>#NAME?</v>
@@ -3697,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -3705,7 +3715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -3713,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -3721,7 +3731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -3729,7 +3739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -3737,7 +3747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -3745,7 +3755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -3753,7 +3763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -3761,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -3769,7 +3779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -3777,7 +3787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -3785,7 +3795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -3793,7 +3803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -3801,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -3809,7 +3819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -3817,7 +3827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -3825,7 +3835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -3833,7 +3843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -3841,7 +3851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -3849,7 +3859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -3857,7 +3867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -3865,7 +3875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="e">
         <f>_xlfn.SINGLE(physiquegamepl2 _xlfn.SINGLE(_pedro_0908 _xlfn.SINGLE(nikkury nas analises o one x roda melhor q o PS4))), hj o PS5 roda alguns jogos melhor, nao todos, por motivos ja explicados por devs e pela ms, gosto pessoal nao é discutível, nao é parâmetro para definir o q é melhor no geral, apenas o q é melhor pra vc</f>
         <v>#NAME?</v>
@@ -3874,7 +3884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -3882,7 +3892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3890,7 +3900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3898,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3906,7 +3916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -3914,7 +3924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -3922,7 +3932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -3930,7 +3940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3938,7 +3948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
@@ -3946,7 +3956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3954,7 +3964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -3962,7 +3972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -3970,7 +3980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -3978,7 +3988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -3986,7 +3996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -3994,7 +4004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -4002,7 +4012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -4010,7 +4020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -4018,7 +4028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -4026,7 +4036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -4034,7 +4044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -4042,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -4050,7 +4060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -4058,7 +4068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -4066,7 +4076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -4074,7 +4084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -4082,7 +4092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -4090,7 +4100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -4098,7 +4108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -4106,7 +4116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -4114,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -4122,7 +4132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -4130,7 +4140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -4138,7 +4148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -4146,7 +4156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -4154,7 +4164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -4162,7 +4172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -4170,7 +4180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -4178,7 +4188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -4186,7 +4196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -4194,7 +4204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -4202,7 +4212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -4210,7 +4220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -4218,7 +4228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -4226,7 +4236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -4234,7 +4244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -4242,7 +4252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -4250,7 +4260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>89</v>
       </c>
@@ -4258,7 +4268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -4266,7 +4276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -4274,7 +4284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -4282,7 +4292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -4290,7 +4300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -4298,7 +4308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -4306,7 +4316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -4314,7 +4324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -4322,7 +4332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -4330,7 +4340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -4338,7 +4348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -4346,7 +4356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -4354,7 +4364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -4362,7 +4372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -4370,7 +4380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -4378,7 +4388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -4386,7 +4396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -4394,7 +4404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -4402,7 +4412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>108</v>
       </c>
@@ -4410,7 +4420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -4418,7 +4428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -4426,7 +4436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -4434,7 +4444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -4442,7 +4452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -4450,7 +4460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -4458,7 +4468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -4466,7 +4476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -4474,7 +4484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -4482,7 +4492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -4490,7 +4500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -4498,7 +4508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -4506,7 +4516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -4514,7 +4524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -4522,7 +4532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -4530,7 +4540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -4538,7 +4548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -4546,7 +4556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -4554,7 +4564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -4562,7 +4572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -4570,7 +4580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -4578,7 +4588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -4586,7 +4596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -4594,7 +4604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -4602,7 +4612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -4610,7 +4620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -4618,7 +4628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -4626,7 +4636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -4634,7 +4644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -4642,7 +4652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -4650,7 +4660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -4658,7 +4668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -4666,7 +4676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -4674,7 +4684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -4682,7 +4692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -4690,7 +4700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -4698,7 +4708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -4706,7 +4716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -4714,7 +4724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -4722,7 +4732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -4730,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -4738,7 +4748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -4746,7 +4756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -4754,7 +4764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -4762,7 +4772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -4770,7 +4780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -4778,7 +4788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -4786,7 +4796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -4794,7 +4804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -4802,7 +4812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -4810,7 +4820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -4818,7 +4828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -4826,7 +4836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -4834,7 +4844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -4842,7 +4852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -4850,7 +4860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -4858,7 +4868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -4866,7 +4876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -4874,7 +4884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -4882,7 +4892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -4890,7 +4900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -4898,7 +4908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -4906,7 +4916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -4914,7 +4924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -4922,7 +4932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -4930,7 +4940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -4938,7 +4948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -4946,7 +4956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -4954,7 +4964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -4962,7 +4972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -4970,7 +4980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -4978,7 +4988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -4986,7 +4996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -4994,7 +5004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -5002,7 +5012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -5010,7 +5020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -5018,7 +5028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -5026,7 +5036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -5034,7 +5044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -5042,7 +5052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -5050,7 +5060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -5058,7 +5068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -5066,7 +5076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -5074,7 +5084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -5082,7 +5092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -5090,7 +5100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -5098,7 +5108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -5106,7 +5116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -5114,7 +5124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -5122,7 +5132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -5130,7 +5140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -5138,7 +5148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>200</v>
       </c>
@@ -5146,7 +5156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -5154,7 +5164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -5162,7 +5172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -5170,7 +5180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -5178,7 +5188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -5186,7 +5196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -5194,7 +5204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -5202,7 +5212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -5210,7 +5220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -5218,7 +5228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -5226,7 +5236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -5234,7 +5244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -5242,7 +5252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -5250,7 +5260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -5258,7 +5268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -5266,7 +5276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -5274,7 +5284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -5282,7 +5292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -5290,7 +5300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -5298,7 +5308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -5306,7 +5316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -5314,7 +5324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -5322,7 +5332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -5330,7 +5340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -5338,7 +5348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -5346,7 +5356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -5354,7 +5364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -5362,7 +5372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -5370,7 +5380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -5378,7 +5388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -5386,7 +5396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -5394,7 +5404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -5402,7 +5412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -5410,7 +5420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -5418,7 +5428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -5426,7 +5436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -5434,7 +5444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -5442,7 +5452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -5450,7 +5460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -5458,7 +5468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -5466,7 +5476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -5474,7 +5484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -5482,7 +5492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -5490,7 +5500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -5498,7 +5508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -5506,7 +5516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -5514,7 +5524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -5522,7 +5532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -5530,7 +5540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -5538,7 +5548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -5546,7 +5556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -5554,7 +5564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -5562,7 +5572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -5570,7 +5580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -5578,7 +5588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -5586,7 +5596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -5594,7 +5604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -5602,7 +5612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -5610,7 +5620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -5618,7 +5628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -5626,7 +5636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -5634,7 +5644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -5642,7 +5652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -5650,7 +5660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -5658,7 +5668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -5666,7 +5676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -5674,7 +5684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -5682,7 +5692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -5690,7 +5700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -5698,7 +5708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -5706,7 +5716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -5714,7 +5724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -5722,7 +5732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -5730,7 +5740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -5738,7 +5748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -5746,7 +5756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -5754,7 +5764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -5762,7 +5772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -5770,7 +5780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -5778,7 +5788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -5786,7 +5796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -5794,7 +5804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -5802,7 +5812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -5810,7 +5820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -5818,7 +5828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -5826,7 +5836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -5834,7 +5844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -5842,7 +5852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -5850,7 +5860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -5858,7 +5868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -5866,7 +5876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -5874,7 +5884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -5882,7 +5892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -5890,7 +5900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -5898,7 +5908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -5906,7 +5916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -5914,7 +5924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -5922,7 +5932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -5930,7 +5940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -5938,7 +5948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -5946,7 +5956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -5954,7 +5964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>302</v>
       </c>
@@ -5962,7 +5972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>303</v>
       </c>
@@ -5970,7 +5980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>304</v>
       </c>
@@ -5978,7 +5988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>305</v>
       </c>
@@ -5986,7 +5996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>306</v>
       </c>
@@ -5994,7 +6004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>307</v>
       </c>
@@ -6002,7 +6012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>308</v>
       </c>
@@ -6010,7 +6020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>309</v>
       </c>
@@ -6018,7 +6028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>310</v>
       </c>
@@ -6026,7 +6036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>311</v>
       </c>
@@ -6034,7 +6044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>312</v>
       </c>
@@ -6042,7 +6052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>313</v>
       </c>
@@ -6050,7 +6060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>314</v>
       </c>
@@ -6058,7 +6068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>315</v>
       </c>
@@ -6066,7 +6076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>316</v>
       </c>
@@ -6074,7 +6084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>317</v>
       </c>
@@ -6082,7 +6092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>318</v>
       </c>
@@ -6090,7 +6100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>319</v>
       </c>
@@ -6098,7 +6108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>320</v>
       </c>
@@ -6106,7 +6116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>321</v>
       </c>
@@ -6114,7 +6124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>322</v>
       </c>
@@ -6122,7 +6132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>323</v>
       </c>
@@ -6130,7 +6140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>324</v>
       </c>
@@ -6138,7 +6148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>325</v>
       </c>
@@ -6146,7 +6156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>326</v>
       </c>
@@ -6154,7 +6164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>327</v>
       </c>
@@ -6162,7 +6172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>328</v>
       </c>
@@ -6170,7 +6180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>329</v>
       </c>
@@ -6178,7 +6188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>330</v>
       </c>
@@ -6186,7 +6196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>331</v>
       </c>
@@ -6194,7 +6204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>332</v>
       </c>
@@ -6202,7 +6212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>333</v>
       </c>
@@ -6210,7 +6220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>334</v>
       </c>
@@ -6218,7 +6228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>335</v>
       </c>
@@ -6226,7 +6236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>336</v>
       </c>
@@ -6234,7 +6244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>337</v>
       </c>
@@ -6242,7 +6252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>338</v>
       </c>
@@ -6250,7 +6260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>339</v>
       </c>
@@ -6258,7 +6268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>340</v>
       </c>
@@ -6266,7 +6276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>341</v>
       </c>
@@ -6274,7 +6284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>342</v>
       </c>
@@ -6282,7 +6292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>343</v>
       </c>
@@ -6290,7 +6300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>344</v>
       </c>
@@ -6298,7 +6308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>345</v>
       </c>
@@ -6306,7 +6316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>346</v>
       </c>
@@ -6314,7 +6324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>347</v>
       </c>
@@ -6322,7 +6332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>348</v>
       </c>
@@ -6330,7 +6340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>349</v>
       </c>
@@ -6338,7 +6348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>350</v>
       </c>
@@ -6346,7 +6356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>351</v>
       </c>
@@ -6354,7 +6364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>352</v>
       </c>
@@ -6362,7 +6372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>353</v>
       </c>
@@ -6370,7 +6380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>354</v>
       </c>
@@ -6378,7 +6388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>355</v>
       </c>
@@ -6386,7 +6396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>356</v>
       </c>
@@ -6394,7 +6404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>357</v>
       </c>
@@ -6402,7 +6412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>358</v>
       </c>
@@ -6410,7 +6420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>359</v>
       </c>
@@ -6418,7 +6428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>360</v>
       </c>
@@ -6426,7 +6436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>361</v>
       </c>
@@ -6434,7 +6444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>362</v>
       </c>
@@ -6442,7 +6452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>363</v>
       </c>
@@ -6450,7 +6460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>364</v>
       </c>
@@ -6458,7 +6468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>365</v>
       </c>
@@ -6466,7 +6476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>366</v>
       </c>
@@ -6474,7 +6484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>367</v>
       </c>
@@ -6482,7 +6492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>368</v>
       </c>
@@ -6490,7 +6500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>369</v>
       </c>
@@ -6498,7 +6508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>370</v>
       </c>
@@ -6506,7 +6516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>371</v>
       </c>
@@ -6514,7 +6524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>372</v>
       </c>
@@ -6522,7 +6532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>373</v>
       </c>
@@ -6530,7 +6540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>374</v>
       </c>
@@ -6538,7 +6548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>375</v>
       </c>
@@ -6546,7 +6556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>376</v>
       </c>
@@ -6554,7 +6564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>377</v>
       </c>
@@ -6562,7 +6572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>378</v>
       </c>
@@ -6570,7 +6580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>379</v>
       </c>
@@ -6578,7 +6588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>380</v>
       </c>
@@ -6586,7 +6596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>381</v>
       </c>
@@ -6594,7 +6604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>382</v>
       </c>
@@ -6602,7 +6612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>383</v>
       </c>
@@ -6610,7 +6620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>384</v>
       </c>
@@ -6618,7 +6628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>385</v>
       </c>
@@ -6626,7 +6636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>386</v>
       </c>
@@ -6634,7 +6644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>387</v>
       </c>
@@ -6642,7 +6652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>388</v>
       </c>
@@ -6650,7 +6660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>389</v>
       </c>
@@ -6658,7 +6668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>390</v>
       </c>
@@ -6666,7 +6676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>391</v>
       </c>
@@ -6674,7 +6684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>392</v>
       </c>
@@ -6682,7 +6692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>393</v>
       </c>
@@ -6690,7 +6700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>394</v>
       </c>
@@ -6698,7 +6708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>395</v>
       </c>
@@ -6706,7 +6716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>396</v>
       </c>
@@ -6714,7 +6724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>397</v>
       </c>
@@ -6722,7 +6732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>398</v>
       </c>
@@ -6730,7 +6740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>399</v>
       </c>
@@ -6738,7 +6748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>400</v>
       </c>
@@ -6746,7 +6756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>401</v>
       </c>
@@ -6754,7 +6764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>402</v>
       </c>
@@ -6762,7 +6772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>403</v>
       </c>
@@ -6770,7 +6780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>404</v>
       </c>
@@ -6778,7 +6788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>405</v>
       </c>
@@ -6786,7 +6796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>406</v>
       </c>
@@ -6794,7 +6804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>407</v>
       </c>
@@ -6802,7 +6812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>408</v>
       </c>
@@ -6810,7 +6820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="3" t="s">
         <v>409</v>
       </c>
@@ -6818,7 +6828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>410</v>
       </c>
@@ -6826,7 +6836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>411</v>
       </c>
@@ -6834,7 +6844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>412</v>
       </c>
@@ -6842,7 +6852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>413</v>
       </c>
@@ -6850,7 +6860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>414</v>
       </c>
@@ -6858,7 +6868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>415</v>
       </c>
@@ -6866,7 +6876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>416</v>
       </c>
@@ -6874,7 +6884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>417</v>
       </c>
@@ -6882,7 +6892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>418</v>
       </c>
@@ -6890,7 +6900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>419</v>
       </c>
@@ -6898,7 +6908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>420</v>
       </c>
@@ -6906,7 +6916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>421</v>
       </c>
@@ -6914,7 +6924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>422</v>
       </c>
@@ -6922,7 +6932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>423</v>
       </c>
@@ -6930,7 +6940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>424</v>
       </c>
@@ -6938,7 +6948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>425</v>
       </c>
@@ -6946,7 +6956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>426</v>
       </c>
@@ -6954,7 +6964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>427</v>
       </c>
@@ -6962,7 +6972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>428</v>
       </c>
@@ -6970,7 +6980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>429</v>
       </c>
@@ -6978,7 +6988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>430</v>
       </c>
@@ -6986,7 +6996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>431</v>
       </c>
@@ -6994,7 +7004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>432</v>
       </c>
@@ -7002,7 +7012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>433</v>
       </c>
@@ -7010,7 +7020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>434</v>
       </c>
@@ -7018,7 +7028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>435</v>
       </c>
@@ -7026,7 +7036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>436</v>
       </c>
@@ -7034,7 +7044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>437</v>
       </c>
@@ -7042,7 +7052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>438</v>
       </c>
@@ -7050,7 +7060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>439</v>
       </c>
@@ -7058,7 +7068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>440</v>
       </c>
@@ -7066,7 +7076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>441</v>
       </c>
@@ -7074,7 +7084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>442</v>
       </c>
@@ -7083,7 +7093,7 @@
       </c>
       <c r="H443" s="7"/>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>443</v>
       </c>
@@ -7091,7 +7101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>444</v>
       </c>
@@ -7099,7 +7109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>445</v>
       </c>
@@ -7107,7 +7117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>446</v>
       </c>
@@ -7115,7 +7125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>447</v>
       </c>
@@ -7123,7 +7133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>448</v>
       </c>
@@ -7131,7 +7141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>449</v>
       </c>
@@ -7139,7 +7149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>450</v>
       </c>
@@ -7147,7 +7157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>451</v>
       </c>
@@ -7155,7 +7165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>452</v>
       </c>
@@ -7163,7 +7173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>453</v>
       </c>
@@ -7171,7 +7181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>454</v>
       </c>
@@ -7179,7 +7189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>455</v>
       </c>
@@ -7187,7 +7197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>456</v>
       </c>
@@ -7195,7 +7205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>457</v>
       </c>
@@ -7203,7 +7213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>458</v>
       </c>
@@ -7211,7 +7221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>459</v>
       </c>
@@ -7219,7 +7229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>460</v>
       </c>
@@ -7227,7 +7237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>461</v>
       </c>
@@ -7235,7 +7245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>462</v>
       </c>
@@ -7243,7 +7253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>463</v>
       </c>
@@ -7251,7 +7261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>464</v>
       </c>
@@ -7259,7 +7269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>465</v>
       </c>
@@ -7267,7 +7277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>466</v>
       </c>
@@ -7275,7 +7285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>467</v>
       </c>
@@ -7283,7 +7293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>468</v>
       </c>
@@ -7291,7 +7301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>469</v>
       </c>
@@ -7299,7 +7309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>470</v>
       </c>
@@ -7307,7 +7317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>471</v>
       </c>
@@ -7315,7 +7325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>472</v>
       </c>
@@ -7323,7 +7333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>473</v>
       </c>
@@ -7331,7 +7341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>474</v>
       </c>
@@ -7339,7 +7349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>475</v>
       </c>
@@ -7347,7 +7357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>476</v>
       </c>
@@ -7355,7 +7365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>477</v>
       </c>
@@ -7363,7 +7373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>478</v>
       </c>
@@ -7371,7 +7381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>479</v>
       </c>
@@ -7379,7 +7389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>480</v>
       </c>
@@ -7387,7 +7397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>481</v>
       </c>
@@ -7395,7 +7405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>482</v>
       </c>
@@ -7403,7 +7413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>483</v>
       </c>
@@ -7411,7 +7421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>484</v>
       </c>
@@ -7419,7 +7429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>485</v>
       </c>
@@ -7427,7 +7437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>486</v>
       </c>
@@ -7435,7 +7445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>487</v>
       </c>
@@ -7443,7 +7453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>488</v>
       </c>
@@ -7451,7 +7461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>489</v>
       </c>
@@ -7459,7 +7469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>490</v>
       </c>
@@ -7467,7 +7477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>491</v>
       </c>
@@ -7475,7 +7485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>492</v>
       </c>
@@ -7483,7 +7493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>493</v>
       </c>
@@ -7491,7 +7501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>494</v>
       </c>
@@ -7499,7 +7509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>495</v>
       </c>
@@ -7507,7 +7517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>496</v>
       </c>
@@ -7515,7 +7525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>497</v>
       </c>
@@ -7523,7 +7533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>498</v>
       </c>
@@ -7531,7 +7541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>499</v>
       </c>
@@ -7539,7 +7549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>500</v>
       </c>
@@ -7547,7 +7557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>501</v>
       </c>
@@ -7555,7 +7565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>502</v>
       </c>
@@ -7563,7 +7573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>503</v>
       </c>
@@ -7571,7 +7581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>504</v>
       </c>
@@ -7579,7 +7589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>505</v>
       </c>
@@ -7587,7 +7597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>506</v>
       </c>
@@ -7595,7 +7605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>507</v>
       </c>
@@ -7603,7 +7613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>508</v>
       </c>
@@ -7611,7 +7621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>509</v>
       </c>
@@ -7619,7 +7629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>510</v>
       </c>
@@ -7627,7 +7637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>511</v>
       </c>
@@ -7635,7 +7645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>512</v>
       </c>
@@ -7643,7 +7653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>513</v>
       </c>
@@ -7651,7 +7661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>514</v>
       </c>
@@ -7659,7 +7669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>515</v>
       </c>
@@ -7667,7 +7677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>516</v>
       </c>
@@ -7675,7 +7685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="8" t="s">
         <v>5</v>
       </c>
@@ -7683,7 +7693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="519" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="8" t="s">
         <v>517</v>
       </c>
@@ -7691,7 +7701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="8" t="s">
         <v>518</v>
       </c>
@@ -7699,7 +7709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="521" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="9" t="s">
         <v>34</v>
       </c>
@@ -7707,7 +7717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="8" t="s">
         <v>519</v>
       </c>
@@ -7715,7 +7725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="8" t="s">
         <v>56</v>
       </c>
@@ -7723,7 +7733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="9" t="s">
         <v>58</v>
       </c>
@@ -7731,7 +7741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="525" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="9" t="s">
         <v>520</v>
       </c>
@@ -7739,7 +7749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="526" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="8" t="s">
         <v>63</v>
       </c>
@@ -7747,7 +7757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="527" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="8" t="s">
         <v>67</v>
       </c>
@@ -7755,7 +7765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="528" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="8" t="s">
         <v>521</v>
       </c>
@@ -7763,7 +7773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="8" t="s">
         <v>522</v>
       </c>
@@ -7771,7 +7781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="530" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="9" t="s">
         <v>523</v>
       </c>
@@ -7779,7 +7789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="8" t="s">
         <v>524</v>
       </c>
@@ -7787,7 +7797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="8" t="s">
         <v>525</v>
       </c>
@@ -7795,7 +7805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="533" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="9" t="s">
         <v>526</v>
       </c>
@@ -7803,7 +7813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="9" t="s">
         <v>527</v>
       </c>
@@ -7811,7 +7821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="8" t="s">
         <v>528</v>
       </c>
@@ -7819,7 +7829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="536" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="8" t="s">
         <v>529</v>
       </c>
@@ -7827,7 +7837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="537" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="8" t="s">
         <v>530</v>
       </c>
@@ -7835,7 +7845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="538" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="9" t="s">
         <v>531</v>
       </c>
@@ -7843,7 +7853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="539" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="8" t="s">
         <v>532</v>
       </c>
@@ -7851,7 +7861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="9" t="s">
         <v>533</v>
       </c>
@@ -7859,7 +7869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="541" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="8" t="s">
         <v>534</v>
       </c>
@@ -7867,7 +7877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="8" t="s">
         <v>535</v>
       </c>
@@ -7875,7 +7885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="9" t="s">
         <v>536</v>
       </c>
@@ -7883,7 +7893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="8" t="s">
         <v>537</v>
       </c>
@@ -7891,7 +7901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="8" t="s">
         <v>538</v>
       </c>
@@ -7899,7 +7909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="546" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="9" t="s">
         <v>539</v>
       </c>
@@ -7907,7 +7917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="547" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="8" t="s">
         <v>540</v>
       </c>
@@ -7915,7 +7925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="9" t="s">
         <v>541</v>
       </c>
@@ -7923,7 +7933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="8" t="s">
         <v>542</v>
       </c>
@@ -7931,7 +7941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="8" t="s">
         <v>543</v>
       </c>
@@ -7939,7 +7949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="551" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="8" t="s">
         <v>544</v>
       </c>
@@ -7947,7 +7957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="552" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="8" t="s">
         <v>545</v>
       </c>
@@ -7955,7 +7965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="553" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="9" t="s">
         <v>546</v>
       </c>
@@ -7963,7 +7973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="554" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="8" t="s">
         <v>547</v>
       </c>
@@ -7971,7 +7981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="555" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="9" t="s">
         <v>548</v>
       </c>
@@ -7979,7 +7989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="556" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="9" t="s">
         <v>549</v>
       </c>
@@ -7987,7 +7997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="8" t="s">
         <v>550</v>
       </c>
@@ -7995,7 +8005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="8" t="s">
         <v>551</v>
       </c>
@@ -8003,7 +8013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="9" t="s">
         <v>552</v>
       </c>
@@ -8011,7 +8021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="9" t="s">
         <v>553</v>
       </c>
@@ -8019,7 +8029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="561" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="9" t="s">
         <v>554</v>
       </c>
@@ -8027,7 +8037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="562" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="8" t="s">
         <v>555</v>
       </c>
@@ -8035,7 +8045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="9" t="s">
         <v>556</v>
       </c>
@@ -8043,7 +8053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="564" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="9" t="s">
         <v>557</v>
       </c>
@@ -8051,7 +8061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="8" t="s">
         <v>558</v>
       </c>
@@ -8059,7 +8069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="9" t="s">
         <v>559</v>
       </c>
@@ -8067,7 +8077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="9" t="s">
         <v>560</v>
       </c>
@@ -8075,7 +8085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="8" t="s">
         <v>561</v>
       </c>
@@ -8083,7 +8093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="9" t="s">
         <v>562</v>
       </c>
@@ -8091,7 +8101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="570" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="8" t="s">
         <v>563</v>
       </c>
@@ -8099,7 +8109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="571" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="9" t="s">
         <v>564</v>
       </c>
@@ -8107,7 +8117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="572" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="9" t="s">
         <v>565</v>
       </c>
@@ -8115,7 +8125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="9" t="s">
         <v>566</v>
       </c>
@@ -8123,7 +8133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="574" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="9" t="s">
         <v>567</v>
       </c>
@@ -8131,7 +8141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="575" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="8" t="s">
         <v>568</v>
       </c>
@@ -8139,7 +8149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="576" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="8" t="s">
         <v>569</v>
       </c>
@@ -8147,7 +8157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="9" t="s">
         <v>570</v>
       </c>
@@ -8155,7 +8165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="9" t="s">
         <v>571</v>
       </c>
@@ -8163,7 +8173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="8" t="s">
         <v>572</v>
       </c>
@@ -8171,7 +8181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="580" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="9" t="s">
         <v>573</v>
       </c>
@@ -8179,7 +8189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="581" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="9" t="s">
         <v>574</v>
       </c>
@@ -8187,7 +8197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="582" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="9" t="s">
         <v>575</v>
       </c>
@@ -8195,7 +8205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="9" t="s">
         <v>576</v>
       </c>
@@ -8203,7 +8213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="8" t="s">
         <v>577</v>
       </c>
@@ -8211,7 +8221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="585" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="8" t="s">
         <v>578</v>
       </c>
@@ -8219,7 +8229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="8" t="s">
         <v>579</v>
       </c>
@@ -8227,7 +8237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="587" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="9" t="s">
         <v>580</v>
       </c>
@@ -8235,7 +8245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="8" t="s">
         <v>581</v>
       </c>
@@ -8243,7 +8253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="8" t="s">
         <v>582</v>
       </c>
@@ -8251,7 +8261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="590" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="9" t="s">
         <v>583</v>
       </c>
@@ -8259,7 +8269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="9" t="s">
         <v>584</v>
       </c>
@@ -8267,7 +8277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="9" t="s">
         <v>585</v>
       </c>
@@ -8285,46 +8295,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E312"/>
+  <dimension ref="A1:K312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="A163" sqref="A163"/>
+    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="A310" sqref="A310"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="68.33203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>586</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>588</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>589</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>590</v>
       </c>
@@ -8332,15 +8342,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>591</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>592</v>
       </c>
@@ -8348,7 +8358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>593</v>
       </c>
@@ -8356,31 +8366,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>594</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>595</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>868</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>869</v>
       </c>
@@ -8389,7 +8400,7 @@
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>596</v>
       </c>
@@ -8397,15 +8408,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>597</v>
       </c>
       <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>598</v>
       </c>
@@ -8413,7 +8424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>599</v>
       </c>
@@ -8421,7 +8432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>600</v>
       </c>
@@ -8429,7 +8440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>601</v>
       </c>
@@ -8437,15 +8448,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>602</v>
       </c>
       <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>603</v>
       </c>
@@ -8453,23 +8464,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>604</v>
       </c>
       <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>605</v>
       </c>
       <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>606</v>
       </c>
@@ -8477,7 +8488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>607</v>
       </c>
@@ -8485,7 +8496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>608</v>
       </c>
@@ -8493,7 +8504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>609</v>
       </c>
@@ -8501,7 +8512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>610</v>
       </c>
@@ -8509,7 +8520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>611</v>
       </c>
@@ -8517,7 +8528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>612</v>
       </c>
@@ -8525,7 +8536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>613</v>
       </c>
@@ -8533,7 +8544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>614</v>
       </c>
@@ -8541,15 +8552,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>615</v>
       </c>
       <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>616</v>
       </c>
@@ -8557,7 +8568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>617</v>
       </c>
@@ -8565,15 +8576,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>618</v>
       </c>
       <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>619</v>
       </c>
@@ -8581,15 +8592,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>620</v>
       </c>
       <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>621</v>
       </c>
@@ -8597,7 +8608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>622</v>
       </c>
@@ -8605,7 +8616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>623</v>
       </c>
@@ -8613,7 +8624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>624</v>
       </c>
@@ -8621,15 +8632,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>625</v>
       </c>
       <c r="B41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>626</v>
       </c>
@@ -8637,7 +8648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>627</v>
       </c>
@@ -8645,15 +8656,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>628</v>
       </c>
       <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>629</v>
       </c>
@@ -8661,7 +8672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>630</v>
       </c>
@@ -8669,23 +8680,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>631</v>
       </c>
       <c r="B47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>632</v>
       </c>
       <c r="B48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>633</v>
       </c>
@@ -8693,15 +8704,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>634</v>
       </c>
       <c r="B50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>635</v>
       </c>
@@ -8709,7 +8720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>636</v>
       </c>
@@ -8717,7 +8728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>637</v>
       </c>
@@ -8725,7 +8736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>638</v>
       </c>
@@ -8733,7 +8744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>639</v>
       </c>
@@ -8741,7 +8752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>640</v>
       </c>
@@ -8749,7 +8760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>641</v>
       </c>
@@ -8757,15 +8768,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>642</v>
       </c>
       <c r="B58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>643</v>
       </c>
@@ -8773,7 +8784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>644</v>
       </c>
@@ -8781,7 +8792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>645</v>
       </c>
@@ -8789,7 +8800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>646</v>
       </c>
@@ -8797,7 +8808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>647</v>
       </c>
@@ -8805,7 +8816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>648</v>
       </c>
@@ -8813,7 +8824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>649</v>
       </c>
@@ -8821,7 +8832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>650</v>
       </c>
@@ -8829,7 +8840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>651</v>
       </c>
@@ -8837,7 +8848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>652</v>
       </c>
@@ -8845,7 +8856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>653</v>
       </c>
@@ -8853,7 +8864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>654</v>
       </c>
@@ -8861,7 +8872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>655</v>
       </c>
@@ -8869,7 +8880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>656</v>
       </c>
@@ -8877,7 +8888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>657</v>
       </c>
@@ -8885,7 +8896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>658</v>
       </c>
@@ -8893,7 +8904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>659</v>
       </c>
@@ -8901,7 +8912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>660</v>
       </c>
@@ -8909,7 +8920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>661</v>
       </c>
@@ -8917,7 +8928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>662</v>
       </c>
@@ -8925,7 +8936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>663</v>
       </c>
@@ -8933,7 +8944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>664</v>
       </c>
@@ -8941,7 +8952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>665</v>
       </c>
@@ -8949,7 +8960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>666</v>
       </c>
@@ -8957,7 +8968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>667</v>
       </c>
@@ -8965,7 +8976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>668</v>
       </c>
@@ -8973,7 +8984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>669</v>
       </c>
@@ -8981,7 +8992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>670</v>
       </c>
@@ -8989,7 +9000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>671</v>
       </c>
@@ -8997,7 +9008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>672</v>
       </c>
@@ -9005,7 +9016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>673</v>
       </c>
@@ -9013,7 +9024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>674</v>
       </c>
@@ -9021,7 +9032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>675</v>
       </c>
@@ -9029,7 +9040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>676</v>
       </c>
@@ -9037,7 +9048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>677</v>
       </c>
@@ -9045,7 +9056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>678</v>
       </c>
@@ -9053,7 +9064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>679</v>
       </c>
@@ -9061,7 +9072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>680</v>
       </c>
@@ -9069,7 +9080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>681</v>
       </c>
@@ -9077,7 +9088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>682</v>
       </c>
@@ -9085,7 +9096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>683</v>
       </c>
@@ -9093,7 +9104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>684</v>
       </c>
@@ -9101,7 +9112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>685</v>
       </c>
@@ -9109,7 +9120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>686</v>
       </c>
@@ -9117,7 +9128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>687</v>
       </c>
@@ -9125,7 +9136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>688</v>
       </c>
@@ -9133,7 +9144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>689</v>
       </c>
@@ -9141,7 +9152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>690</v>
       </c>
@@ -9149,7 +9160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>691</v>
       </c>
@@ -9157,7 +9168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>692</v>
       </c>
@@ -9165,7 +9176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>693</v>
       </c>
@@ -9173,7 +9184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>694</v>
       </c>
@@ -9181,7 +9192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>695</v>
       </c>
@@ -9189,7 +9200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>696</v>
       </c>
@@ -9197,7 +9208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>697</v>
       </c>
@@ -9205,7 +9216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>698</v>
       </c>
@@ -9213,7 +9224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>699</v>
       </c>
@@ -9221,7 +9232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>870</v>
       </c>
@@ -9229,7 +9240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>871</v>
       </c>
@@ -9237,7 +9248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>700</v>
       </c>
@@ -9245,7 +9256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>701</v>
       </c>
@@ -9253,7 +9264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>702</v>
       </c>
@@ -9261,7 +9272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>703</v>
       </c>
@@ -9269,7 +9280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>704</v>
       </c>
@@ -9277,7 +9288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>705</v>
       </c>
@@ -9285,7 +9296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>706</v>
       </c>
@@ -9293,7 +9304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>707</v>
       </c>
@@ -9301,7 +9312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>708</v>
       </c>
@@ -9309,7 +9320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>709</v>
       </c>
@@ -9317,7 +9328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>710</v>
       </c>
@@ -9325,7 +9336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>711</v>
       </c>
@@ -9333,7 +9344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>712</v>
       </c>
@@ -9341,7 +9352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>713</v>
       </c>
@@ -9349,7 +9360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>872</v>
       </c>
@@ -9357,7 +9368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>873</v>
       </c>
@@ -9365,7 +9376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>714</v>
       </c>
@@ -9373,7 +9384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>715</v>
       </c>
@@ -9381,7 +9392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>716</v>
       </c>
@@ -9389,7 +9400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>717</v>
       </c>
@@ -9397,7 +9408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>718</v>
       </c>
@@ -9405,15 +9416,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>719</v>
       </c>
       <c r="B139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>720</v>
       </c>
@@ -9421,23 +9432,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>721</v>
       </c>
       <c r="B141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>722</v>
       </c>
       <c r="B142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>723</v>
       </c>
@@ -9445,15 +9456,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>724</v>
       </c>
       <c r="B144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>725</v>
       </c>
@@ -9461,7 +9472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>726</v>
       </c>
@@ -9469,7 +9480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>727</v>
       </c>
@@ -9477,7 +9488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>728</v>
       </c>
@@ -9485,7 +9496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>729</v>
       </c>
@@ -9493,7 +9504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>730</v>
       </c>
@@ -9501,15 +9512,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>731</v>
       </c>
       <c r="B151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>732</v>
       </c>
@@ -9517,7 +9528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>733</v>
       </c>
@@ -9525,7 +9536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>734</v>
       </c>
@@ -9533,7 +9544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>735</v>
       </c>
@@ -9541,7 +9552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>736</v>
       </c>
@@ -9549,7 +9560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>737</v>
       </c>
@@ -9557,7 +9568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>738</v>
       </c>
@@ -9565,7 +9576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>739</v>
       </c>
@@ -9573,7 +9584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>740</v>
       </c>
@@ -9581,7 +9592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>741</v>
       </c>
@@ -9589,7 +9600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>742</v>
       </c>
@@ -9597,15 +9608,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>874</v>
       </c>
       <c r="B163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>743</v>
       </c>
@@ -9613,7 +9624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>744</v>
       </c>
@@ -9621,7 +9632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>745</v>
       </c>
@@ -9629,7 +9640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>746</v>
       </c>
@@ -9637,23 +9648,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>747</v>
       </c>
       <c r="B168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>748</v>
       </c>
       <c r="B169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>749</v>
       </c>
@@ -9661,7 +9672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>750</v>
       </c>
@@ -9669,15 +9680,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>751</v>
       </c>
       <c r="B172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>752</v>
       </c>
@@ -9685,7 +9696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>753</v>
       </c>
@@ -9693,7 +9704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>754</v>
       </c>
@@ -9701,7 +9712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>755</v>
       </c>
@@ -9709,7 +9720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>756</v>
       </c>
@@ -9717,7 +9728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>757</v>
       </c>
@@ -9725,7 +9736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>758</v>
       </c>
@@ -9733,7 +9744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>759</v>
       </c>
@@ -9741,7 +9752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>760</v>
       </c>
@@ -9749,7 +9760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>761</v>
       </c>
@@ -9757,7 +9768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>762</v>
       </c>
@@ -9765,7 +9776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>763</v>
       </c>
@@ -9773,7 +9784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>764</v>
       </c>
@@ -9781,7 +9792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>765</v>
       </c>
@@ -9789,7 +9800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>766</v>
       </c>
@@ -9797,7 +9808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>767</v>
       </c>
@@ -9805,7 +9816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>768</v>
       </c>
@@ -9813,7 +9824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
         <v>769</v>
       </c>
@@ -9821,7 +9832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>770</v>
       </c>
@@ -9829,7 +9840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>771</v>
       </c>
@@ -9837,7 +9848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>772</v>
       </c>
@@ -9845,7 +9856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>773</v>
       </c>
@@ -9853,7 +9864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>774</v>
       </c>
@@ -9861,31 +9872,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>775</v>
       </c>
       <c r="B196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>776</v>
       </c>
       <c r="B197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>777</v>
       </c>
       <c r="B198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>778</v>
       </c>
@@ -9893,7 +9904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>779</v>
       </c>
@@ -9901,7 +9912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>780</v>
       </c>
@@ -9909,7 +9920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>781</v>
       </c>
@@ -9917,7 +9928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>782</v>
       </c>
@@ -9925,7 +9936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>783</v>
       </c>
@@ -9933,7 +9944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>784</v>
       </c>
@@ -9941,7 +9952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>785</v>
       </c>
@@ -9949,7 +9960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>786</v>
       </c>
@@ -9957,47 +9968,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>787</v>
       </c>
       <c r="B208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>788</v>
       </c>
       <c r="B209">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>789</v>
       </c>
       <c r="B210">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>790</v>
       </c>
       <c r="B211">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>791</v>
       </c>
       <c r="B212">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>792</v>
       </c>
@@ -10005,15 +10016,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>793</v>
       </c>
       <c r="B214">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>794</v>
       </c>
@@ -10021,7 +10032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>795</v>
       </c>
@@ -10029,7 +10040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>796</v>
       </c>
@@ -10037,7 +10048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>797</v>
       </c>
@@ -10045,23 +10056,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>798</v>
       </c>
       <c r="B219">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>799</v>
       </c>
       <c r="B220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>800</v>
       </c>
@@ -10069,7 +10080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
         <v>801</v>
       </c>
@@ -10077,7 +10088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>802</v>
       </c>
@@ -10085,15 +10096,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>803</v>
       </c>
       <c r="B224">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>804</v>
       </c>
@@ -10101,7 +10112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>805</v>
       </c>
@@ -10109,7 +10120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>806</v>
       </c>
@@ -10117,7 +10128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>807</v>
       </c>
@@ -10125,7 +10136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>808</v>
       </c>
@@ -10133,7 +10144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>809</v>
       </c>
@@ -10141,7 +10152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
         <v>810</v>
       </c>
@@ -10149,7 +10160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>811</v>
       </c>
@@ -10157,7 +10168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>812</v>
       </c>
@@ -10165,7 +10176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>813</v>
       </c>
@@ -10173,7 +10184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>814</v>
       </c>
@@ -10181,15 +10192,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>815</v>
       </c>
       <c r="B236">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>816</v>
       </c>
@@ -10197,7 +10208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>817</v>
       </c>
@@ -10205,15 +10216,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>818</v>
       </c>
       <c r="B239">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>819</v>
       </c>
@@ -10221,31 +10232,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>867</v>
       </c>
       <c r="B241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>820</v>
       </c>
       <c r="B242">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>821</v>
       </c>
       <c r="B243">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>822</v>
       </c>
@@ -10253,7 +10264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>823</v>
       </c>
@@ -10261,7 +10272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>824</v>
       </c>
@@ -10269,7 +10280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A247" s="10" t="s">
         <v>521</v>
       </c>
@@ -10277,7 +10288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A248" s="11" t="s">
         <v>523</v>
       </c>
@@ -10285,7 +10296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A249" s="10" t="s">
         <v>825</v>
       </c>
@@ -10293,7 +10304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="315" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A250" s="11" t="s">
         <v>826</v>
       </c>
@@ -10301,7 +10312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A251" s="10" t="s">
         <v>827</v>
       </c>
@@ -10309,7 +10320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A252" s="11" t="s">
         <v>828</v>
       </c>
@@ -10317,7 +10328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" ht="288" x14ac:dyDescent="0.3">
       <c r="A253" s="10" t="s">
         <v>525</v>
       </c>
@@ -10325,7 +10336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A254" s="11" t="s">
         <v>526</v>
       </c>
@@ -10333,7 +10344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A255" s="11" t="s">
         <v>829</v>
       </c>
@@ -10341,7 +10352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A256" s="11" t="s">
         <v>527</v>
       </c>
@@ -10349,7 +10360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="A257" s="10" t="s">
         <v>830</v>
       </c>
@@ -10357,7 +10368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A258" s="10" t="s">
         <v>528</v>
       </c>
@@ -10365,7 +10376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A259" s="11" t="s">
         <v>831</v>
       </c>
@@ -10373,7 +10384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A260" s="10" t="s">
         <v>529</v>
       </c>
@@ -10381,7 +10392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A261" s="11" t="s">
         <v>832</v>
       </c>
@@ -10389,7 +10400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A262" s="10" t="s">
         <v>530</v>
       </c>
@@ -10397,7 +10408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A263" s="11" t="s">
         <v>531</v>
       </c>
@@ -10405,7 +10416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A264" s="10" t="s">
         <v>532</v>
       </c>
@@ -10413,7 +10424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A265" s="11" t="s">
         <v>833</v>
       </c>
@@ -10421,7 +10432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="270" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A266" s="11" t="s">
         <v>834</v>
       </c>
@@ -10429,7 +10440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A267" s="11" t="s">
         <v>533</v>
       </c>
@@ -10437,7 +10448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A268" s="10" t="s">
         <v>835</v>
       </c>
@@ -10445,7 +10456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A269" s="11" t="s">
         <v>836</v>
       </c>
@@ -10453,7 +10464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A270" s="10" t="s">
         <v>534</v>
       </c>
@@ -10461,15 +10472,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A271" s="11" t="s">
         <v>837</v>
       </c>
       <c r="B271" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A272" s="11" t="s">
         <v>838</v>
       </c>
@@ -10477,7 +10488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="A273" s="11" t="s">
         <v>839</v>
       </c>
@@ -10485,7 +10496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A274" s="10" t="s">
         <v>535</v>
       </c>
@@ -10493,7 +10504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A275" s="10" t="s">
         <v>840</v>
       </c>
@@ -10501,7 +10512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="A276" s="10" t="s">
         <v>841</v>
       </c>
@@ -10509,7 +10520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A277" s="11" t="s">
         <v>842</v>
       </c>
@@ -10517,7 +10528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A278" s="11" t="s">
         <v>843</v>
       </c>
@@ -10525,7 +10536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A279" s="11" t="s">
         <v>844</v>
       </c>
@@ -10533,7 +10544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="A280" s="11" t="s">
         <v>845</v>
       </c>
@@ -10541,7 +10552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A281" s="10" t="s">
         <v>846</v>
       </c>
@@ -10549,7 +10560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A282" s="11" t="s">
         <v>847</v>
       </c>
@@ -10557,7 +10568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="270" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A283" s="10" t="s">
         <v>537</v>
       </c>
@@ -10565,7 +10576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A284" s="11" t="s">
         <v>848</v>
       </c>
@@ -10573,7 +10584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A285" s="11" t="s">
         <v>849</v>
       </c>
@@ -10581,7 +10592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="315" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" ht="288" x14ac:dyDescent="0.3">
       <c r="A286" s="11" t="s">
         <v>539</v>
       </c>
@@ -10589,7 +10600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A287" s="10" t="s">
         <v>850</v>
       </c>
@@ -10597,7 +10608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A288" s="10" t="s">
         <v>540</v>
       </c>
@@ -10605,7 +10616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A289" s="10" t="s">
         <v>851</v>
       </c>
@@ -10613,7 +10624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A290" s="10" t="s">
         <v>852</v>
       </c>
@@ -10621,7 +10632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A291" s="10" t="s">
         <v>542</v>
       </c>
@@ -10629,7 +10640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A292" s="11" t="s">
         <v>853</v>
       </c>
@@ -10637,15 +10648,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A293" s="11" t="s">
         <v>854</v>
       </c>
       <c r="B293" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A294" s="10" t="s">
         <v>543</v>
       </c>
@@ -10653,7 +10664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A295" s="10" t="s">
         <v>544</v>
       </c>
@@ -10661,7 +10672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A296" s="10" t="s">
         <v>545</v>
       </c>
@@ -10669,7 +10680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A297" s="11" t="s">
         <v>855</v>
       </c>
@@ -10677,7 +10688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A298" s="11" t="s">
         <v>856</v>
       </c>
@@ -10685,23 +10696,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A299" s="10" t="s">
         <v>857</v>
       </c>
       <c r="B299" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A300" s="10" t="s">
         <v>858</v>
       </c>
       <c r="B300" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A301" s="11" t="s">
         <v>859</v>
       </c>
@@ -10709,7 +10720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A302" s="11" t="s">
         <v>546</v>
       </c>
@@ -10717,7 +10728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A303" s="11" t="s">
         <v>860</v>
       </c>
@@ -10725,15 +10736,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A304" s="10" t="s">
         <v>861</v>
       </c>
       <c r="B304" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="10" t="s">
         <v>547</v>
       </c>
@@ -10741,7 +10752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A306" s="11" t="s">
         <v>548</v>
       </c>
@@ -10749,7 +10760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="11" t="s">
         <v>862</v>
       </c>
@@ -10757,7 +10768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A308" s="11" t="s">
         <v>863</v>
       </c>
@@ -10765,23 +10776,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A309" s="11" t="s">
         <v>864</v>
       </c>
       <c r="B309" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A310" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="13" t="s">
         <v>550</v>
       </c>
       <c r="B310" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A311" s="11" t="s">
         <v>865</v>
       </c>
@@ -10789,13 +10800,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A312" s="10" t="s">
         <v>866</v>
       </c>
       <c r="B312" s="10">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F312" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
